--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>升级条件，拥有n名m级弟子</t>
   </si>
   <si>
+    <t>解锁内容</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -52,13 +55,22 @@
     <t>UpgradePreconditions</t>
   </si>
   <si>
-    <t>1|20;2|20</t>
+    <t>UnlockContent</t>
+  </si>
+  <si>
+    <t>1001|20;1002|20</t>
   </si>
   <si>
     <t>20|5</t>
   </si>
   <si>
+    <t>解锁藏经阁、巡逻房</t>
+  </si>
+  <si>
     <t>60|8</t>
+  </si>
+  <si>
+    <t>解锁百草屋、门派挑战</t>
   </si>
   <si>
     <t>120|15</t>
@@ -81,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,6 +114,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -110,61 +189,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,69 +242,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,30 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -509,17 +497,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,13 +541,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,143 +597,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1072,24 +1081,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="21.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,155 +1112,171 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
         <v>500</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
         <v>500</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
         <v>500</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
         <v>500</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
         <v>500</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
         <v>500</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
         <v>500</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -114,10 +114,116 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,16 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,58 +245,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,54 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,13 +279,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,19 +387,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,139 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +478,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,11 +517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,30 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,16 +570,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,12 @@
     <t>解锁内容</t>
   </si>
   <si>
+    <t>工作报酬</t>
+  </si>
+  <si>
+    <t>防守经验</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -58,34 +64,73 @@
     <t>UnlockContent</t>
   </si>
   <si>
-    <t>1001|20;1002|20</t>
+    <t>WorkPay</t>
+  </si>
+  <si>
+    <t>DefExp</t>
+  </si>
+  <si>
+    <t>1001|50;1002|50</t>
   </si>
   <si>
     <t>20|5</t>
   </si>
   <si>
-    <t>解锁藏经阁、巡逻房</t>
+    <t>解锁藏经阁;解锁巡逻房;增加2间屋舍</t>
+  </si>
+  <si>
+    <t>1001|300;1002|300</t>
   </si>
   <si>
     <t>60|8</t>
   </si>
   <si>
-    <t>解锁百草屋、门派挑战</t>
+    <t>解锁锻造屋;解锁门派挑战;增加1间屋舍</t>
+  </si>
+  <si>
+    <t>1003|50;1004|50</t>
   </si>
   <si>
     <t>120|15</t>
   </si>
   <si>
+    <t>解锁百草屋;增加1间屋舍;增加1处练功场</t>
+  </si>
+  <si>
+    <t>1003|300;1004|300</t>
+  </si>
+  <si>
     <t>210|20</t>
   </si>
   <si>
+    <t>解锁伏魔塔;提升一些建筑的最高等级</t>
+  </si>
+  <si>
+    <t>1003|1000;1004|1000</t>
+  </si>
+  <si>
     <t>300|25</t>
   </si>
   <si>
+    <t>解锁英雄试炼;提升一些建筑的最高等级</t>
+  </si>
+  <si>
+    <t>1003|4000;1004|4000</t>
+  </si>
+  <si>
     <t>450|30</t>
   </si>
   <si>
+    <t>解锁神兽;提升一些建筑的最高等级</t>
+  </si>
+  <si>
+    <t>1003|12000;1004|12000</t>
+  </si>
+  <si>
     <t>600|36</t>
+  </si>
+  <si>
+    <t>提升一些建筑的最高等级</t>
   </si>
 </sst>
 </file>
@@ -93,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -114,6 +159,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -122,96 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -235,15 +281,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -252,7 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,37 +318,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,145 +480,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,11 +527,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,17 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,17 +581,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,15 +619,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -585,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,25 +1126,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="45.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,168 +1162,252 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>200</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
         <v>500</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
+      <c r="G8" s="2">
+        <v>18000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="2">
+        <v>90000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>540000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2">
-        <v>500</v>
+        <v>65000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4320000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
-        <v>500</v>
+        <v>125000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>43200000</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t>防守经验</t>
   </si>
   <si>
+    <t>日常任务数</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>DefExp</t>
+  </si>
+  <si>
+    <t>CommonTaskAmount</t>
   </si>
   <si>
     <t>1001|50;1002|50</t>
@@ -138,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,6 +165,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -168,9 +265,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,69 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,44 +308,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -318,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +533,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -545,8 +562,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,60 +630,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,19 +648,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,112 +669,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,27 +1132,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="45.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,74 +1175,86 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,16 +1273,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
@@ -1277,16 +1296,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>1200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>200</v>
@@ -1300,16 +1319,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>3000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2">
         <v>500</v>
@@ -1323,16 +1342,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>8000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>1200</v>
@@ -1346,16 +1365,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>25000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>3000</v>
@@ -1369,16 +1388,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>65000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
         <v>5000</v>
@@ -1392,16 +1411,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <v>125000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2">
         <v>8000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -40,7 +40,10 @@
     <t>防守经验</t>
   </si>
   <si>
-    <t>日常任务数</t>
+    <t>防守功夫经验</t>
+  </si>
+  <si>
+    <t>日常任务最大数</t>
   </si>
   <si>
     <t>A</t>
@@ -73,7 +76,10 @@
     <t>DefExp</t>
   </si>
   <si>
-    <t>CommonTaskAmount</t>
+    <t>DefKongfuExp</t>
+  </si>
+  <si>
+    <t>CommonTaskMax</t>
   </si>
   <si>
     <t>1001|50;1002|50</t>
@@ -144,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -166,8 +172,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,14 +216,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -198,51 +293,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,59 +314,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -324,13 +330,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,31 +444,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,127 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,11 +541,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,41 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,151 +625,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,28 +1138,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="2" customWidth="1"/>
+    <col min="7" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="12" width="5.375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,86 +1185,98 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1267,166 +1286,280 @@
       <c r="F5" s="2">
         <v>20</v>
       </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>80</v>
+      </c>
+      <c r="L5" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
       </c>
       <c r="G6" s="2">
-        <v>1500</v>
+        <v>80</v>
+      </c>
+      <c r="H6" s="2">
+        <v>120</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>120</v>
+      </c>
+      <c r="L6" s="2">
+        <v>80</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>1200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2">
         <v>200</v>
       </c>
       <c r="G7" s="2">
-        <v>4500</v>
+        <v>225</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>200</v>
+      </c>
+      <c r="L7" s="2">
+        <v>150</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>3000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2">
         <v>500</v>
       </c>
       <c r="G8" s="2">
-        <v>18000</v>
+        <v>375</v>
+      </c>
+      <c r="H8" s="2">
+        <v>350</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>350</v>
+      </c>
+      <c r="L8" s="2">
+        <v>250</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>8000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>1200</v>
       </c>
       <c r="G9" s="2">
-        <v>90000</v>
+        <v>900</v>
+      </c>
+      <c r="H9" s="2">
+        <v>600</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>600</v>
+      </c>
+      <c r="L9" s="2">
+        <v>450</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>25000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>3000</v>
       </c>
       <c r="G10" s="2">
-        <v>540000</v>
+        <v>1600</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L10" s="2">
+        <v>800</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>65000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2">
         <v>5000</v>
       </c>
       <c r="G11" s="2">
-        <v>4320000</v>
+        <v>5000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>125000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2">
         <v>8000</v>
       </c>
       <c r="G12" s="2">
-        <v>43200000</v>
+        <v>11250</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4500</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4500</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4500</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -40,10 +40,7 @@
     <t>防守经验</t>
   </si>
   <si>
-    <t>防守功夫经验</t>
-  </si>
-  <si>
-    <t>日常任务最大数</t>
+    <t>日常任务数</t>
   </si>
   <si>
     <t>A</t>
@@ -76,10 +73,7 @@
     <t>DefExp</t>
   </si>
   <si>
-    <t>DefKongfuExp</t>
-  </si>
-  <si>
-    <t>CommonTaskMax</t>
+    <t>CommonTaskAmount</t>
   </si>
   <si>
     <t>1001|50;1002|50</t>
@@ -150,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -172,37 +166,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,13 +181,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -231,77 +219,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +255,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -330,19 +324,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,157 +360,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,33 +535,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,8 +562,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,27 +630,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,29 +1132,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="12" width="5.375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="28" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,98 +1178,86 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1286,280 +1267,166 @@
       <c r="F5" s="2">
         <v>20</v>
       </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>80</v>
-      </c>
-      <c r="L5" s="2">
-        <v>50</v>
-      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
       </c>
       <c r="G6" s="2">
-        <v>80</v>
-      </c>
-      <c r="H6" s="2">
-        <v>120</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3</v>
-      </c>
-      <c r="K6" s="2">
-        <v>120</v>
-      </c>
-      <c r="L6" s="2">
-        <v>80</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>1200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>200</v>
       </c>
       <c r="G7" s="2">
-        <v>225</v>
-      </c>
-      <c r="H7" s="2">
-        <v>200</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>200</v>
-      </c>
-      <c r="L7" s="2">
-        <v>150</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1.5</v>
+        <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>3000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2">
         <v>500</v>
       </c>
       <c r="G8" s="2">
-        <v>375</v>
-      </c>
-      <c r="H8" s="2">
-        <v>350</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4</v>
-      </c>
-      <c r="K8" s="2">
-        <v>350</v>
-      </c>
-      <c r="L8" s="2">
-        <v>250</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1.5</v>
+        <v>18000</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>8000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>1200</v>
       </c>
       <c r="G9" s="2">
-        <v>900</v>
-      </c>
-      <c r="H9" s="2">
-        <v>600</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
-        <v>600</v>
-      </c>
-      <c r="L9" s="2">
-        <v>450</v>
-      </c>
-      <c r="M9" s="2">
-        <v>2</v>
+        <v>90000</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>25000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>3000</v>
       </c>
       <c r="G10" s="2">
-        <v>1600</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1200</v>
-      </c>
-      <c r="L10" s="2">
-        <v>800</v>
-      </c>
-      <c r="M10" s="2">
-        <v>2</v>
+        <v>540000</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>65000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
         <v>5000</v>
       </c>
       <c r="G11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>2500</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M11" s="2">
-        <v>2.5</v>
+        <v>4320000</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <v>125000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2">
         <v>8000</v>
       </c>
       <c r="G12" s="2">
-        <v>11250</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4500</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2">
-        <v>4500</v>
-      </c>
-      <c r="L12" s="2">
-        <v>4500</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2.5</v>
+        <v>43200000</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -145,8 +145,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -165,6 +165,135 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,141 +302,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -324,13 +324,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,31 +468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,85 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,43 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,13 +533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,8 +566,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,15 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,21 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,16 +610,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,142 +648,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1132,15 +1135,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
@@ -1257,7 +1260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1267,8 +1270,14 @@
       <c r="F5" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1290,8 +1299,14 @@
       <c r="G6" s="2">
         <v>1500</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1313,8 +1328,14 @@
       <c r="G7" s="2">
         <v>4500</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1336,8 +1357,14 @@
       <c r="G8" s="2">
         <v>18000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1359,8 +1386,14 @@
       <c r="G9" s="2">
         <v>90000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1382,8 +1415,14 @@
       <c r="G10" s="2">
         <v>540000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1405,8 +1444,14 @@
       <c r="G11" s="2">
         <v>4320000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1428,10 +1473,295 @@
       <c r="G12" s="2">
         <v>43200000</v>
       </c>
+      <c r="H12" s="2">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="8:8">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="8:8">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="8:8">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="8:8">
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="8:8">
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="8:8">
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="8:8">
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="8:8">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="8:8">
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="8:8">
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="8:8">
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="8:8">
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="8:8">
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="8:8">
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="8:8">
+      <c r="H115" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
-    <sortCondition ref="A5"/>
+  <sortState ref="H22:H115">
+    <sortCondition ref="H22"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,9 @@
     <t>210|20</t>
   </si>
   <si>
+    <t>提升一些建筑的最高等级</t>
+  </si>
+  <si>
     <t>解锁伏魔塔;提升一些建筑的最高等级</t>
   </si>
   <si>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t>600|36</t>
-  </si>
-  <si>
-    <t>提升一些建筑的最高等级</t>
   </si>
 </sst>
 </file>
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -173,7 +173,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +257,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,63 +286,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,51 +308,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -324,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,17 +533,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +566,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -595,51 +630,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,12 +1135,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1305,8 +1305,11 @@
       <c r="I6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1334,8 +1337,11 @@
       <c r="I7" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1363,8 +1369,11 @@
       <c r="I8" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1392,22 +1401,25 @@
       <c r="I9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>25000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>3000</v>
@@ -1421,22 +1433,25 @@
       <c r="I10" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>65000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
         <v>5000</v>
@@ -1450,22 +1465,25 @@
       <c r="I11" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>125000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
         <v>8000</v>
@@ -1478,6 +1496,9 @@
       </c>
       <c r="I12" s="2">
         <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="8:8">

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,9 @@
     <t>解锁内容</t>
   </si>
   <si>
+    <t>工作时长</t>
+  </si>
+  <si>
     <t>工作报酬</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>UnlockContent</t>
+  </si>
+  <si>
+    <t>WorkTime</t>
   </si>
   <si>
     <t>WorkPay</t>
@@ -144,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -166,14 +172,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +224,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -195,32 +284,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,83 +314,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -324,6 +330,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,180 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,21 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -577,6 +568,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +611,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -606,40 +636,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,28 +1141,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,86 +1188,98 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1268,521 +1287,545 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
+        <v>150</v>
+      </c>
+      <c r="G5" s="2">
         <v>20</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
+        <v>150</v>
+      </c>
+      <c r="G6" s="2">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1500</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>1200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2">
+        <v>150</v>
+      </c>
+      <c r="G7" s="2">
         <v>200</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>4500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>4</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>9</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>3000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2">
+        <v>150</v>
+      </c>
+      <c r="G8" s="2">
         <v>500</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>18000</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>13</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>8000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
+        <v>180</v>
+      </c>
+      <c r="G9" s="2">
         <v>1200</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>90000</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>15</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>25000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
+        <v>180</v>
+      </c>
+      <c r="G10" s="2">
         <v>3000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>540000</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>6</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>17</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
         <v>65000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
+        <v>180</v>
+      </c>
+      <c r="G11" s="2">
         <v>5000</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>4320000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>6</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>17</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>125000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
+        <v>240</v>
+      </c>
+      <c r="G12" s="2">
         <v>8000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>43200000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>6</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>17</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="8:8">
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="8:8">
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="8:8">
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="8:8">
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="8:8">
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="8:8">
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="8:8">
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="8:8">
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="8:8">
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="8:8">
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="8:8">
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="8:8">
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="8:8">
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="8:8">
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="8:8">
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="8:8">
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="8:8">
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="8:8">
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="8:8">
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="8:8">
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="8:8">
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="8:8">
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="8:8">
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="8:8">
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="8:8">
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="8:8">
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="8:8">
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="8:8">
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="8:8">
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="8:8">
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="8:8">
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="8:8">
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="8:8">
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="8:8">
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="8:8">
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="8:8">
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="8:8">
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="8:8">
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="8:8">
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="8:8">
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="8:8">
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="8:8">
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="8:8">
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="8:8">
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="8:8">
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="8:8">
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="8:8">
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="8:8">
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="8:8">
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="8:8">
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="8:8">
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="8:8">
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="8:8">
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="8:8">
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="8:8">
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="8:8">
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="8:8">
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="8:8">
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="8:8">
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="8:8">
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="8:8">
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="8:8">
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="8:8">
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="8:8">
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="8:8">
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="8:8">
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="8:8">
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="8:8">
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="8:8">
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="8:8">
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="8:8">
-      <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="8:8">
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="8:8">
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="8:8">
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="8:8">
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="8:8">
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="8:8">
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="8:8">
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="8:8">
-      <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="8:8">
-      <c r="H113" s="3"/>
-    </row>
-    <row r="114" spans="8:8">
-      <c r="H114" s="3"/>
-    </row>
-    <row r="115" spans="8:8">
-      <c r="H115" s="3"/>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="9:9">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="9:9">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="9:9">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="9:9">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="9:9">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="9:9">
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="9:9">
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="9:9">
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="9:9">
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="9:9">
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="9:9">
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="9:9">
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="9:9">
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="9:9">
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="9:9">
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="9:9">
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="9:9">
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="9:9">
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="9:9">
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="9:9">
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="9:9">
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="9:9">
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="9:9">
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="9:9">
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="9:9">
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="9:9">
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="9:9">
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="9:9">
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="9:9">
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="9:9">
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="9:9">
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="9:9">
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="9:9">
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="9:9">
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="9:9">
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="9:9">
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="9:9">
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="9:9">
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="9:9">
+      <c r="I115" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="H22:H115">
-    <sortCondition ref="H22"/>
+  <sortState ref="I22:I115">
+    <sortCondition ref="I22"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,12 @@
     <t>解锁内容</t>
   </si>
   <si>
+    <t>生成工作间隔，分钟</t>
+  </si>
+  <si>
+    <t>最大同保留工作数</t>
+  </si>
+  <si>
     <t>工作时长</t>
   </si>
   <si>
@@ -70,6 +76,12 @@
     <t>UnlockContent</t>
   </si>
   <si>
+    <t>WorkInterval</t>
+  </si>
+  <si>
+    <t>WorkMaxAmount</t>
+  </si>
+  <si>
     <t>WorkTime</t>
   </si>
   <si>
@@ -115,18 +127,21 @@
     <t>210|20</t>
   </si>
   <si>
+    <t>增加1间屋舍;提升一些建筑的最高等级</t>
+  </si>
+  <si>
+    <t>解锁伏魔塔;增加1间屋舍;提升一些建筑的最高等级</t>
+  </si>
+  <si>
+    <t>1003|1000;1004|1000</t>
+  </si>
+  <si>
+    <t>300|25</t>
+  </si>
+  <si>
     <t>提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>解锁伏魔塔;提升一些建筑的最高等级</t>
-  </si>
-  <si>
-    <t>1003|1000;1004|1000</t>
-  </si>
-  <si>
-    <t>300|25</t>
-  </si>
-  <si>
     <t>解锁英雄试炼;提升一些建筑的最高等级</t>
   </si>
   <si>
@@ -136,7 +151,7 @@
     <t>450|30</t>
   </si>
   <si>
-    <t>解锁神兽;提升一些建筑的最高等级</t>
+    <t>解锁神兽;增加1间屋舍;提升一些建筑的最高等级</t>
   </si>
   <si>
     <t>1003|12000;1004|12000</t>
@@ -150,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,9 +187,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,31 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,42 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,17 +300,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,21 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -330,19 +345,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,61 +465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,13 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,78 +526,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,11 +563,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,26 +608,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,21 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -636,16 +642,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,12 +1156,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1156,14 +1171,17 @@
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="8.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
+    <col min="12" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="47.5" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,95 +1209,119 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1287,545 +1329,593 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
         <v>150</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>20</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
         <v>150</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>100</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>1500</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>5</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
         <v>1200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
         <v>150</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>200</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>4500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>9</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>3000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
         <v>150</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>500</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>18000</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>13</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>8000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
         <v>180</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>1200</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>90000</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>15</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>25000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
         <v>180</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="2">
         <v>3000</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>540000</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>6</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>17</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>65000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
         <v>180</v>
       </c>
-      <c r="G11" s="2">
+      <c r="I11" s="2">
         <v>5000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>4320000</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
         <v>6</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>17</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2">
         <v>125000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
         <v>240</v>
       </c>
-      <c r="G12" s="2">
+      <c r="I12" s="2">
         <v>8000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <v>43200000</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>6</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>17</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9">
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="9:9">
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="9:9">
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="9:9">
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="9:9">
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="9:9">
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="9:9">
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="9:9">
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="9:9">
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="9:9">
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="9:9">
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="9:9">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="9:9">
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="9:9">
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="9:9">
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="9:9">
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="9:9">
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="9:9">
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="9:9">
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="9:9">
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="9:9">
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="9:9">
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="9:9">
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="9:9">
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="9:9">
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="9:9">
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="9:9">
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="9:9">
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="9:9">
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="9:9">
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="9:9">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="9:9">
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="9:9">
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="9:9">
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="9:9">
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="9:9">
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="9:9">
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="9:9">
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="9:9">
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="9:9">
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="9:9">
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="9:9">
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="9:9">
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="9:9">
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="9:9">
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="9:9">
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="9:9">
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="9:9">
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="9:9">
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="9:9">
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="9:9">
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="9:9">
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="9:9">
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="9:9">
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="9:9">
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="9:9">
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="9:9">
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="9:9">
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="9:9">
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="9:9">
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="9:9">
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="9:9">
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="9:9">
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="9:9">
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="9:9">
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="9:9">
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="9:9">
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="9:9">
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="9:9">
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="9:9">
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="9:9">
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="9:9">
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="9:9">
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="9:9">
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="9:9">
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="9:9">
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="9:9">
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="9:9">
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="9:9">
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="9:9">
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="9:9">
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="9:9">
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="9:9">
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="9:9">
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="9:9">
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="9:9">
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="9:9">
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="9:9">
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="9:9">
-      <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="9:9">
-      <c r="I113" s="3"/>
-    </row>
-    <row r="114" spans="9:9">
-      <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="9:9">
-      <c r="I115" s="3"/>
+      <c r="O12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="11:11">
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="11:11">
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="11:11">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="11:11">
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="11:11">
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="11:11">
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="11:11">
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="11:11">
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="11:11">
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="11:11">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="11:11">
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="11:11">
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="11:11">
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="11:11">
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="11:11">
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="11:11">
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="11:11">
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="11:11">
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="11:11">
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="11:11">
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="11:11">
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="11:11">
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="11:11">
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="11:11">
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="11:11">
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="11:11">
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="11:11">
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="11:11">
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="11:11">
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="11:11">
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="11:11">
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="11:11">
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="11:11">
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="11:11">
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="11:11">
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="11:11">
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="11:11">
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="11:11">
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="11:11">
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="11:11">
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="11:11">
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="11:11">
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="11:11">
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="11:11">
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="11:11">
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="11:11">
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="11:11">
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="11:11">
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="11:11">
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="11:11">
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="11:11">
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="11:11">
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="11:11">
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="11:11">
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="11:11">
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="11:11">
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="11:11">
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="11:11">
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="11:11">
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="I22:I115">
-    <sortCondition ref="I22"/>
+  <sortState ref="K22:K115">
+    <sortCondition ref="K22"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -94,7 +94,7 @@
     <t>CommonTaskAmount</t>
   </si>
   <si>
-    <t>1001|50;1002|50</t>
+    <t>1001|100;1002|100</t>
   </si>
   <si>
     <t>20|5</t>
@@ -103,7 +103,7 @@
     <t>解锁藏经阁;解锁巡逻房;增加2间屋舍</t>
   </si>
   <si>
-    <t>1001|300;1002|300</t>
+    <t>1001|320;1002|320</t>
   </si>
   <si>
     <t>60|8</t>
@@ -112,7 +112,7 @@
     <t>解锁锻造屋;解锁门派挑战;增加1间屋舍</t>
   </si>
   <si>
-    <t>1003|50;1004|50</t>
+    <t>1003|100;1004|100</t>
   </si>
   <si>
     <t>120|15</t>
@@ -121,7 +121,7 @@
     <t>解锁百草屋;增加1间屋舍;增加1处练功场</t>
   </si>
   <si>
-    <t>1003|300;1004|300</t>
+    <t>1003|320;1004|320</t>
   </si>
   <si>
     <t>210|20</t>
@@ -145,7 +145,7 @@
     <t>解锁英雄试炼;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|4000;1004|4000</t>
+    <t>1003|3200;1004|3200</t>
   </si>
   <si>
     <t>450|30</t>
@@ -154,7 +154,7 @@
     <t>解锁神兽;增加1间屋舍;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|12000;1004|12000</t>
+    <t>1003|10000;1004|10000</t>
   </si>
   <si>
     <t>600|36</t>
@@ -165,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -187,13 +187,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,21 +194,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,8 +215,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,84 +329,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -345,37 +345,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,139 +465,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,11 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +580,44 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,60 +651,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,19 +669,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,112 +690,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,12 +1156,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1169,7 +1169,7 @@
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
@@ -1634,6 +1634,27 @@
         <v>40</v>
       </c>
     </row>
+    <row r="16" spans="11:11">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="3"/>
+    </row>
     <row r="23" spans="11:11">
       <c r="K23" s="3"/>
     </row>
@@ -1880,43 +1901,7 @@
     <row r="104" spans="11:11">
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="11:11">
-      <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="11:11">
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="11:11">
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110" s="3"/>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112" s="3"/>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="11:11">
-      <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="11:11">
-      <c r="K115" s="3"/>
-    </row>
   </sheetData>
-  <sortState ref="K22:K115">
-    <sortCondition ref="K22"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -40,7 +40,7 @@
     <t>最大同保留工作数</t>
   </si>
   <si>
-    <t>工作时长</t>
+    <t>工作时长，秒</t>
   </si>
   <si>
     <t>工作报酬</t>
@@ -167,8 +167,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -187,7 +187,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,8 +236,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,40 +285,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,53 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +315,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -345,6 +345,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -357,175 +453,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,17 +554,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,13 +589,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,15 +618,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -1364,7 +1364,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -1405,7 +1405,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -1446,7 +1446,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
         <v>4</v>
@@ -1487,7 +1487,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>4</v>
@@ -1528,7 +1528,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -1569,7 +1569,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
         <v>5</v>
@@ -1610,7 +1610,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2">
         <v>5</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>升级条件，拥有n名m级弟子</t>
   </si>
   <si>
+    <t>弟子规划等级</t>
+  </si>
+  <si>
     <t>解锁内容</t>
   </si>
   <si>
@@ -52,9 +55,21 @@
     <t>日常任务数</t>
   </si>
   <si>
+    <t>任务种类</t>
+  </si>
+  <si>
+    <t>弟子最大数量</t>
+  </si>
+  <si>
+    <t>屋舍数</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -97,7 +112,10 @@
     <t>1001|100;1002|100</t>
   </si>
   <si>
-    <t>20|5</t>
+    <t>15|5</t>
+  </si>
+  <si>
+    <t>解锁藏经阁;解锁巡逻房;增加1间屋舍</t>
   </si>
   <si>
     <t>解锁藏经阁;解锁巡逻房;增加2间屋舍</t>
@@ -106,25 +124,25 @@
     <t>1001|320;1002|320</t>
   </si>
   <si>
-    <t>60|8</t>
+    <t>50|8</t>
   </si>
   <si>
     <t>解锁锻造屋;解锁门派挑战;增加1间屋舍</t>
   </si>
   <si>
-    <t>1003|100;1004|100</t>
-  </si>
-  <si>
-    <t>120|15</t>
+    <t>1003|200;1004|200</t>
+  </si>
+  <si>
+    <t>100|15</t>
   </si>
   <si>
     <t>解锁百草屋;增加1间屋舍;增加1处练功场</t>
   </si>
   <si>
-    <t>1003|320;1004|320</t>
-  </si>
-  <si>
-    <t>210|20</t>
+    <t>1003|640;1004|640</t>
+  </si>
+  <si>
+    <t>180|20</t>
   </si>
   <si>
     <t>增加1间屋舍;提升一些建筑的最高等级</t>
@@ -133,31 +151,31 @@
     <t>解锁伏魔塔;增加1间屋舍;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|1000;1004|1000</t>
-  </si>
-  <si>
-    <t>300|25</t>
+    <t>1003|2000;1004|2000</t>
+  </si>
+  <si>
+    <t>250|25</t>
+  </si>
+  <si>
+    <t>解锁英雄试炼;增加1间屋舍;提升一些建筑的最高等级</t>
+  </si>
+  <si>
+    <t>1003|6400;1004|6400</t>
+  </si>
+  <si>
+    <t>350|30</t>
   </si>
   <si>
     <t>提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>解锁英雄试炼;提升一些建筑的最高等级</t>
-  </si>
-  <si>
-    <t>1003|3200;1004|3200</t>
-  </si>
-  <si>
-    <t>450|30</t>
-  </si>
-  <si>
-    <t>解锁神兽;增加1间屋舍;提升一些建筑的最高等级</t>
-  </si>
-  <si>
-    <t>1003|10000;1004|10000</t>
-  </si>
-  <si>
-    <t>600|36</t>
+    <t>解锁神兽;提升一些建筑的最高等级</t>
+  </si>
+  <si>
+    <t>1003|20000;1004|20000</t>
+  </si>
+  <si>
+    <t>500|36</t>
   </si>
 </sst>
 </file>
@@ -165,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -187,7 +205,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,8 +247,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,36 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -260,9 +287,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,22 +319,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -301,7 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,18 +340,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -345,25 +363,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,157 +519,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,10 +574,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -580,10 +596,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -600,15 +633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,17 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,16 +687,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,115 +705,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,12 +1174,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1170,18 +1188,19 @@
     <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="47.5" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.25" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="2" customWidth="1"/>
+    <col min="13" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="47.5" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,691 +1234,781 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
-        <v>150</v>
-      </c>
       <c r="I5" s="2">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
+        <v>120</v>
+      </c>
+      <c r="J5" s="2">
+        <v>50</v>
       </c>
       <c r="L5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2">
+        <v>120</v>
+      </c>
+      <c r="J6" s="2">
         <v>100</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1500</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>5</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>1200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>120</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
       <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
         <v>150</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>200</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>4500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>9</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7" s="2">
+        <v>17</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>3000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2">
+        <v>210</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2">
         <v>3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>4</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>150</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>500</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>18000</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>13</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="N8" s="2">
+        <v>22</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>8000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2">
+        <v>300</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>4</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>180</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>1200</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>90000</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>15</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="N9" s="2">
+        <v>30</v>
+      </c>
+      <c r="O9" s="2">
+        <v>7</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
         <v>25000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2">
+        <v>450</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>180</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>3000</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>540000</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>6</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>17</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="N10" s="2">
+        <v>36</v>
+      </c>
+      <c r="O10" s="2">
+        <v>8</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
         <v>65000</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2">
+        <v>600</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>240</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4320000</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>17</v>
+      </c>
+      <c r="N11" s="2">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>180</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="J11" s="2">
-        <v>4320000</v>
-      </c>
-      <c r="K11" s="2">
-        <v>6</v>
-      </c>
-      <c r="L11" s="2">
-        <v>17</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
         <v>125000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>240</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>8000</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>43200000</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>6</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>17</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="11:11">
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="11:11">
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="11:11">
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="11:11">
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="11:11">
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="11:11">
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="11:11">
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="11:11">
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="11:11">
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="11:11">
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="11:11">
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="11:11">
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="11:11">
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="11:11">
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="11:11">
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="11:11">
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="11:11">
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="11:11">
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="11:11">
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="11:11">
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="11:11">
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="11:11">
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="11:11">
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="11:11">
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="11:11">
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="11:11">
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="11:11">
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="11:11">
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="11:11">
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="11:11">
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="11:11">
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="11:11">
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="11:11">
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="11:11">
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="11:11">
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="11:11">
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="11:11">
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="11:11">
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="11:11">
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="11:11">
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="11:11">
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="11:11">
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="11:11">
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="11:11">
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="11:11">
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="11:11">
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="11:11">
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="11:11">
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="11:11">
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="11:11">
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="11:11">
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="11:11">
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="11:11">
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="11:11">
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="11:11">
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="11:11">
-      <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="11:11">
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="11:11">
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="11:11">
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="11:11">
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="11:11">
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="11:11">
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="11:11">
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="11:11">
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="11:11">
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="11:11">
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="11:11">
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="11:11">
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="11:11">
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="11:11">
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="11:11">
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="11:11">
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="11:11">
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="11:11">
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="11:11">
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="11:11">
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="11:11">
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="11:11">
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="11:11">
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="11:11">
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="11:11">
-      <c r="K104" s="3"/>
+      <c r="N12" s="2">
+        <v>48</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="12:12">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="12:12">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="12:12">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="12:12">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="12:12">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="12:12">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="12:12">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="12:12">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="12:12">
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="12:12">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="12:12">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="12:12">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="12:12">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="12:12">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="12:12">
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="12:12">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="12:12">
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="12:12">
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="12:12">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="12:12">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="12:12">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="12:12">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="12:12">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="12:12">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="12:12">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="12:12">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="12:12">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="12:12">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="12:12">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="12:12">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="12:12">
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="12:12">
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="12:12">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="12:12">
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="12:12">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="12:12">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="12:12">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="12:12">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="12:12">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="12:12">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="12:12">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="12:12">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="12:12">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="12:12">
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="12:12">
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="12:12">
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="12:12">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="12:12">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="12:12">
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="12:12">
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="12:12">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="12:12">
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="12:12">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="12:12">
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="12:12">
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="12:12">
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="12:12">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="12:12">
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="12:12">
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="12:12">
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="12:12">
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="12:12">
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="12:12">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="12:12">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="12:12">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="12:12">
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="12:12">
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="12:12">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="12:12">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="12:12">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="12:12">
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="12:12">
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="12:12">
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="12:12">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="12:12">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="12:12">
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="12:12">
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="12:12">
+      <c r="L104" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -115,7 +115,7 @@
     <t>15|5</t>
   </si>
   <si>
-    <t>解锁藏经阁;解锁巡逻房;增加1间屋舍</t>
+    <t>解锁藏经阁;增加1间屋舍</t>
   </si>
   <si>
     <t>解锁藏经阁;解锁巡逻房;增加2间屋舍</t>
@@ -184,9 +184,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -204,18 +204,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,7 +228,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,26 +280,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,14 +292,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,26 +310,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,10 +341,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -363,19 +363,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,163 +513,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +576,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,27 +605,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -639,9 +631,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,11 +655,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1179,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -37,7 +37,7 @@
     <t>解锁内容</t>
   </si>
   <si>
-    <t>生成工作间隔，分钟</t>
+    <t>生成工作间隔，秒</t>
   </si>
   <si>
     <t>最大同保留工作数</t>
@@ -183,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -205,93 +205,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,7 +228,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -319,7 +236,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +265,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,8 +303,46 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,13 +363,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,169 +423,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,16 +576,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,15 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -629,13 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,17 +641,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1179,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1375,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -1469,7 +1469,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1519,7 +1519,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
@@ -1569,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1619,7 +1619,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -1669,7 +1669,7 @@
         <v>49</v>
       </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
@@ -1716,7 +1716,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -204,11 +204,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,16 +235,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,14 +264,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +301,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,14 +326,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -311,7 +334,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -319,30 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,13 +369,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,144 +513,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,12 +538,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,11 +572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,51 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +622,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -669,16 +654,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,16 +687,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,115 +705,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1179,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1375,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -1469,7 +1469,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1519,7 +1519,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
@@ -1569,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1619,7 +1619,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -1669,7 +1669,7 @@
         <v>49</v>
       </c>
       <c r="G11" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
@@ -1716,7 +1716,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -185,8 +185,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -204,17 +204,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,7 +221,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,14 +243,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,8 +270,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -286,6 +293,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -302,7 +310,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -318,23 +334,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -363,31 +363,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,19 +495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,127 +519,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +572,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,6 +598,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,31 +645,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,17 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1179,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1386,11 +1386,14 @@
       <c r="J5" s="2">
         <v>50</v>
       </c>
+      <c r="K5" s="2">
+        <v>50</v>
+      </c>
       <c r="L5" s="2">
         <v>2</v>
       </c>
       <c r="M5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="2">
         <v>5</v>
@@ -1428,16 +1431,16 @@
         <v>120</v>
       </c>
       <c r="J6" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K6" s="2">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2">
         <v>3</v>
       </c>
       <c r="M6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" s="2">
         <v>12</v>
@@ -1475,19 +1478,19 @@
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J7" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K7" s="2">
-        <v>4500</v>
+        <v>50</v>
       </c>
       <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
         <v>4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>9</v>
       </c>
       <c r="N7" s="2">
         <v>17</v>
@@ -1528,16 +1531,16 @@
         <v>150</v>
       </c>
       <c r="J8" s="2">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K8" s="2">
-        <v>18000</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
         <v>5</v>
-      </c>
-      <c r="M8" s="2">
-        <v>13</v>
       </c>
       <c r="N8" s="2">
         <v>22</v>
@@ -1575,19 +1578,19 @@
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2">
-        <v>1200</v>
+        <v>260</v>
       </c>
       <c r="K9" s="2">
-        <v>90000</v>
+        <v>50</v>
       </c>
       <c r="L9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N9" s="2">
         <v>30</v>
@@ -1625,19 +1628,19 @@
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J10" s="2">
-        <v>3000</v>
+        <v>360</v>
       </c>
       <c r="K10" s="2">
-        <v>540000</v>
+        <v>50</v>
       </c>
       <c r="L10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N10" s="2">
         <v>36</v>
@@ -1675,19 +1678,19 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="J11" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="K11" s="2">
-        <v>4320000</v>
+        <v>50</v>
       </c>
       <c r="L11" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N11" s="2">
         <v>43</v>
@@ -1722,19 +1725,19 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="J12" s="2">
-        <v>8000</v>
+        <v>650</v>
       </c>
       <c r="K12" s="2">
-        <v>43200000</v>
+        <v>50</v>
       </c>
       <c r="L12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N12" s="2">
         <v>48</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -121,7 +121,7 @@
     <t>解锁藏经阁;解锁巡逻房;增加2间屋舍</t>
   </si>
   <si>
-    <t>1001|320;1002|320</t>
+    <t>1001|800;1002|800</t>
   </si>
   <si>
     <t>50|8</t>
@@ -130,7 +130,7 @@
     <t>解锁锻造屋;解锁门派挑战;增加1间屋舍</t>
   </si>
   <si>
-    <t>1003|200;1004|200</t>
+    <t>1003|2000;1004|2000</t>
   </si>
   <si>
     <t>100|15</t>
@@ -139,7 +139,7 @@
     <t>解锁百草屋;增加1间屋舍;增加1处练功场</t>
   </si>
   <si>
-    <t>1003|640;1004|640</t>
+    <t>1003|4000;1004|4000</t>
   </si>
   <si>
     <t>180|20</t>
@@ -151,7 +151,7 @@
     <t>解锁伏魔塔;增加1间屋舍;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|2000;1004|2000</t>
+    <t>1003|7000;1004|7000</t>
   </si>
   <si>
     <t>250|25</t>
@@ -160,7 +160,7 @@
     <t>解锁英雄试炼;增加1间屋舍;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|6400;1004|6400</t>
+    <t>1003|10000;1004|10000</t>
   </si>
   <si>
     <t>350|30</t>
@@ -172,7 +172,7 @@
     <t>解锁神兽;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|20000;1004|20000</t>
+    <t>1003|4800;1004|4800</t>
   </si>
   <si>
     <t>500|36</t>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -204,39 +204,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,8 +249,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,39 +280,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,11 +301,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,21 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -363,91 +363,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,91 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,17 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,21 +592,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,7 +624,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,25 +669,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,29 +1174,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.25" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="2" customWidth="1"/>
-    <col min="13" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="47.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="49.625" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1402,7 +1405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -1451,8 +1454,11 @@
       <c r="P6" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="R6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1460,7 +1466,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="2">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>35</v>
@@ -1501,8 +1507,11 @@
       <c r="P7" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="R7" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="2">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>38</v>
@@ -1551,8 +1560,11 @@
       <c r="P8" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="R8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1560,7 +1572,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="2">
-        <v>8000</v>
+        <v>5600</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -1601,8 +1613,11 @@
       <c r="P9" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="R9" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1610,7 +1625,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="2">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>45</v>
@@ -1651,8 +1666,11 @@
       <c r="P10" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="R10" s="2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="2">
-        <v>65000</v>
+        <v>12000</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>48</v>
@@ -1698,8 +1716,11 @@
       <c r="P11" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="R11" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1707,7 +1728,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="2">
-        <v>125000</v>
+        <v>16800</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>52</v>
@@ -1744,6 +1765,9 @@
       </c>
       <c r="P12" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2400</v>
       </c>
     </row>
     <row r="16" spans="12:12">

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,9 @@
     <t>日常任务数</t>
   </si>
   <si>
+    <t>日常任务每日最大次数</t>
+  </si>
+  <si>
     <t>任务种类</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>CommonTaskAmount</t>
+  </si>
+  <si>
+    <t>CTDailyMax</t>
   </si>
   <si>
     <t>1001|100;1002|100</t>
@@ -183,9 +189,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -204,32 +210,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,18 +232,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,7 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -272,8 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,23 +270,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +293,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -325,8 +322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,7 +332,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,7 +348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,13 +369,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,169 +531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,24 +580,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,17 +616,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,16 +652,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -661,11 +669,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +693,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,12 +1180,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1195,15 +1201,15 @@
     <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="49.625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="12" max="13" width="5.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="49.625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,125 +1255,137 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1396,33 +1414,36 @@
         <v>2</v>
       </c>
       <c r="M5" s="2">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2">
         <v>3</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>5</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>400</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1443,39 +1464,42 @@
         <v>3</v>
       </c>
       <c r="M6" s="2">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>12</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>4</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>1600</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2">
         <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1496,39 +1520,42 @@
         <v>3</v>
       </c>
       <c r="M7" s="2">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2">
         <v>4</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>17</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>5</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="Q7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>3600</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
         <v>210</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1549,39 +1576,42 @@
         <v>4</v>
       </c>
       <c r="M8" s="2">
+        <v>20</v>
+      </c>
+      <c r="N8" s="2">
         <v>5</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>22</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>6</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="Q8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>5600</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2">
         <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1602,39 +1632,42 @@
         <v>4</v>
       </c>
       <c r="M9" s="2">
+        <v>20</v>
+      </c>
+      <c r="N9" s="2">
         <v>6</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>30</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>7</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="2">
+      <c r="Q9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2">
         <v>8000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2">
         <v>450</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1655,39 +1688,42 @@
         <v>5</v>
       </c>
       <c r="M10" s="2">
+        <v>20</v>
+      </c>
+      <c r="N10" s="2">
         <v>7</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>36</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>8</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="2">
+      <c r="Q10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="2">
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2">
         <v>12000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
         <v>600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1708,36 +1744,39 @@
         <v>5</v>
       </c>
       <c r="M11" s="2">
+        <v>20</v>
+      </c>
+      <c r="N11" s="2">
         <v>8</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>43</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="Q11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
         <v>16800</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1758,15 +1797,18 @@
         <v>5</v>
       </c>
       <c r="M12" s="2">
+        <v>20</v>
+      </c>
+      <c r="N12" s="2">
         <v>8</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>48</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="2">
+      <c r="Q12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="2">
         <v>2400</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J5" s="2">
         <v>50</v>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J6" s="2">
         <v>80</v>
@@ -1464,10 +1464,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="2">
         <v>12</v>
@@ -1508,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J7" s="2">
         <v>120</v>
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1564,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="J8" s="2">
         <v>180</v>
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="M8" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2">
         <v>5</v>
@@ -1620,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="J9" s="2">
         <v>260</v>
@@ -1632,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2">
         <v>6</v>
@@ -1676,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="J10" s="2">
         <v>360</v>
@@ -1688,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N10" s="2">
         <v>7</v>
@@ -1732,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J11" s="2">
         <v>500</v>
@@ -1744,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="2">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2">
         <v>8</v>
@@ -1785,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J12" s="2">
         <v>650</v>
@@ -1797,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N12" s="2">
         <v>8</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -189,8 +189,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -211,7 +211,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,30 +255,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,18 +301,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,8 +325,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,54 +353,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -369,12 +369,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,7 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,133 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,6 +578,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -585,15 +615,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,21 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -652,17 +658,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +693,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,7 +1185,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1405,7 +1405,7 @@
         <v>90</v>
       </c>
       <c r="J5" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2">
         <v>50</v>
@@ -1455,7 +1455,7 @@
         <v>90</v>
       </c>
       <c r="J6" s="2">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2">
         <v>50</v>
@@ -1511,7 +1511,7 @@
         <v>90</v>
       </c>
       <c r="J7" s="2">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2">
         <v>50</v>
@@ -1567,7 +1567,7 @@
         <v>90</v>
       </c>
       <c r="J8" s="2">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2">
         <v>50</v>
@@ -1623,7 +1623,7 @@
         <v>90</v>
       </c>
       <c r="J9" s="2">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2">
         <v>50</v>
@@ -1679,7 +1679,7 @@
         <v>90</v>
       </c>
       <c r="J10" s="2">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="K10" s="2">
         <v>50</v>
@@ -1735,7 +1735,7 @@
         <v>90</v>
       </c>
       <c r="J11" s="2">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="K11" s="2">
         <v>50</v>
@@ -1788,7 +1788,7 @@
         <v>90</v>
       </c>
       <c r="J12" s="2">
-        <v>650</v>
+        <v>25</v>
       </c>
       <c r="K12" s="2">
         <v>50</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
     <t>工作报酬</t>
   </si>
   <si>
+    <t>工作经验</t>
+  </si>
+  <si>
     <t>防守经验</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>WorkPay</t>
+  </si>
+  <si>
+    <t>WorkExp</t>
   </si>
   <si>
     <t>DefExp</t>
@@ -189,9 +195,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -211,14 +217,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,13 +271,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -263,17 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,18 +312,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,8 +336,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,28 +359,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -369,54 +375,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,19 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,103 +537,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,21 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -608,13 +599,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,7 +633,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,17 +665,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,12 +1186,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:U104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1199,17 +1205,17 @@
     <col min="7" max="7" width="6.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="5.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="49.625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="10" max="11" width="8.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="5.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="49.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,134 +1264,146 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:13">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>32</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1411,39 +1429,42 @@
         <v>50</v>
       </c>
       <c r="L5" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" s="2">
         <v>2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>20</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>3</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>5</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>400</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1458,48 +1479,51 @@
         <v>25</v>
       </c>
       <c r="K6" s="2">
+        <v>125</v>
+      </c>
+      <c r="L6" s="2">
+        <v>250</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="2">
         <v>50</v>
       </c>
-      <c r="L6" s="2">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2">
-        <v>24</v>
-      </c>
-      <c r="N6" s="2">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2">
-        <v>12</v>
-      </c>
-      <c r="P6" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>1600</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2">
         <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1514,48 +1538,51 @@
         <v>25</v>
       </c>
       <c r="K7" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="L7" s="2">
+        <v>800</v>
+      </c>
+      <c r="M7" s="2">
         <v>3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>28</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>4</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>17</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>5</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="R7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>3600</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>210</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1570,48 +1597,51 @@
         <v>25</v>
       </c>
       <c r="K8" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="L8" s="2">
+        <v>2400</v>
+      </c>
+      <c r="M8" s="2">
         <v>4</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>32</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>5</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>22</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>6</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="R8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <v>5600</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1626,48 +1656,51 @@
         <v>25</v>
       </c>
       <c r="K9" s="2">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="L9" s="2">
+        <v>6000</v>
+      </c>
+      <c r="M9" s="2">
         <v>4</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>36</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>6</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>30</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>7</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="R9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>8000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2">
         <v>450</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1682,48 +1715,51 @@
         <v>25</v>
       </c>
       <c r="K10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>18000</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>40</v>
+      </c>
+      <c r="O10" s="2">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>8</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="2">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>40</v>
-      </c>
-      <c r="N10" s="2">
-        <v>7</v>
-      </c>
-      <c r="O10" s="2">
-        <v>36</v>
-      </c>
-      <c r="P10" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
         <v>12000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2">
         <v>600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1738,45 +1774,48 @@
         <v>25</v>
       </c>
       <c r="K11" s="2">
-        <v>50</v>
+        <v>30000</v>
       </c>
       <c r="L11" s="2">
+        <v>60000</v>
+      </c>
+      <c r="M11" s="2">
         <v>5</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>44</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>8</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>43</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="R11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2">
         <v>16800</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1791,293 +1830,296 @@
         <v>25</v>
       </c>
       <c r="K12" s="2">
-        <v>50</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="2">
+        <v>200000</v>
+      </c>
+      <c r="M12" s="2">
         <v>5</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>48</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>8</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>48</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T12" s="2">
+      <c r="R12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="2">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="12:12">
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="12:12">
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="12:12">
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="12:12">
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="12:12">
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="12:12">
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="12:12">
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="12:12">
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="12:12">
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="12:12">
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="12:12">
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="12:12">
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="12:12">
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="12:12">
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="12:12">
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="12:12">
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="12:12">
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="12:12">
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="12:12">
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="12:12">
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="12:12">
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="12:12">
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="12:12">
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="12:12">
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="12:12">
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="12:12">
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="12:12">
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="12:12">
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="12:12">
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="12:12">
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="12:12">
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="12:12">
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="12:12">
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="12:12">
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="12:12">
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="12:12">
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="12:12">
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="12:12">
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="12:12">
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="12:12">
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="12:12">
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="12:12">
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="12:12">
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="12:12">
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="12:12">
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="12:12">
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="12:12">
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="12:12">
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="12:12">
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="12:12">
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="12:12">
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="12:12">
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="12:12">
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="12:12">
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="12:12">
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="12:12">
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="12:12">
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="12:12">
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="12:12">
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="12:12">
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="12:12">
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="12:12">
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="12:12">
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="12:12">
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="12:12">
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="12:12">
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="12:12">
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="12:12">
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="12:12">
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="12:12">
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="12:12">
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="12:12">
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="12:12">
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="12:12">
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="12:12">
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="12:12">
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="12:12">
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="12:12">
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="12:12">
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="12:12">
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="12:12">
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="12:12">
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="12:12">
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="12:12">
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="12:12">
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="12:12">
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="12:12">
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="12:12">
-      <c r="L104" s="3"/>
+    <row r="16" spans="13:13">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="13:13">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="13:13">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="13:13">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="13:13">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="13:13">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="13:13">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="13:13">
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="13:13">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="13:13">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="13:13">
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="13:13">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="13:13">
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="13:13">
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="13:13">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="13:13">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="13:13">
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="13:13">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="13:13">
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="13:13">
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="13:13">
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="13:13">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="13:13">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="13:13">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="13:13">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="13:13">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="13:13">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="13:13">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="13:13">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="13:13">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="13:13">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="13:13">
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="13:13">
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="13:13">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="13:13">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="13:13">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="13:13">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="13:13">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="13:13">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="13:13">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="13:13">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="13:13">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="13:13">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="13:13">
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="13:13">
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="13:13">
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="13:13">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="13:13">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="13:13">
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="13:13">
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="13:13">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="13:13">
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="13:13">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="13:13">
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="13:13">
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="13:13">
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="13:13">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="13:13">
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="13:13">
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="13:13">
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="13:13">
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="13:13">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="13:13">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="13:13">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="13:13">
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="13:13">
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="13:13">
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="13:13">
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="13:13">
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="13:13">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="13:13">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="13:13">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="13:13">
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="13:13">
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="13:13">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="13:13">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="13:13">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="13:13">
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="13:13">
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="13:13">
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="13:13">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="13:13">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="13:13">
+      <c r="M102" s="3"/>
+    </row>
+    <row r="103" spans="13:13">
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" spans="13:13">
+      <c r="M104" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -195,9 +195,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -223,9 +223,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,13 +256,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,21 +286,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,42 +329,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,12 +346,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -375,37 +375,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,145 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,11 +623,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,27 +681,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1191,7 +1191,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1426,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>100</v>
@@ -1479,7 +1479,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="2">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="L6" s="2">
         <v>250</v>
@@ -1538,7 +1538,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L7" s="2">
         <v>800</v>
@@ -1597,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="2">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L8" s="2">
         <v>2400</v>
@@ -1656,7 +1656,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="2">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L9" s="2">
         <v>6000</v>
@@ -1715,7 +1715,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="2">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L10" s="2">
         <v>18000</v>
@@ -1774,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="2">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L11" s="2">
         <v>60000</v>
@@ -1830,7 +1830,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="2">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="L12" s="2">
         <v>200000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,9 @@
     <t>日常任务每日最大次数</t>
   </si>
   <si>
+    <t>练功弟子等级上限</t>
+  </si>
+  <si>
     <t>任务种类</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t>CTDailyMax</t>
+  </si>
+  <si>
+    <t>PracticeLevelMax</t>
   </si>
   <si>
     <t>1001|100;1002|100</t>
@@ -195,9 +201,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -217,16 +223,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,84 +246,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,16 +284,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,187 +381,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +594,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,21 +636,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,20 +657,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,8 +682,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,12 +1192,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U104"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1207,15 +1213,15 @@
     <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
     <col min="10" max="11" width="8.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.375" style="2" customWidth="1"/>
-    <col min="13" max="14" width="5.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="49.625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="13" max="15" width="5.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,143 +1273,155 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:14">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:14">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>34</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1438,33 +1456,36 @@
         <v>20</v>
       </c>
       <c r="O5" s="2">
+        <v>25</v>
+      </c>
+      <c r="P5" s="2">
         <v>3</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>5</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>400</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1491,39 +1512,42 @@
         <v>24</v>
       </c>
       <c r="O6" s="2">
+        <v>65</v>
+      </c>
+      <c r="P6" s="2">
         <v>4</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>12</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>4</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="S6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>1600</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2">
         <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1550,39 +1574,42 @@
         <v>28</v>
       </c>
       <c r="O7" s="2">
+        <v>130</v>
+      </c>
+      <c r="P7" s="2">
         <v>4</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>17</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="S7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
         <v>3600</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>210</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1609,39 +1636,42 @@
         <v>32</v>
       </c>
       <c r="O8" s="2">
+        <v>230</v>
+      </c>
+      <c r="P8" s="2">
         <v>5</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>22</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>6</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="S8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
         <v>5600</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1668,39 +1698,42 @@
         <v>36</v>
       </c>
       <c r="O9" s="2">
+        <v>320</v>
+      </c>
+      <c r="P9" s="2">
         <v>6</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>30</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>7</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="S9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
         <v>8000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2">
         <v>450</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1727,39 +1760,42 @@
         <v>40</v>
       </c>
       <c r="O10" s="2">
+        <v>480</v>
+      </c>
+      <c r="P10" s="2">
         <v>7</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>36</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>8</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="S10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="2">
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>12000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2">
         <v>600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1786,36 +1822,39 @@
         <v>44</v>
       </c>
       <c r="O11" s="2">
+        <v>650</v>
+      </c>
+      <c r="P11" s="2">
         <v>8</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>43</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="S11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
         <v>16800</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1842,15 +1881,18 @@
         <v>48</v>
       </c>
       <c r="O12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="2">
         <v>8</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>48</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12" s="2">
+      <c r="S12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" s="2">
         <v>2400</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -201,9 +201,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -222,6 +222,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -229,33 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,7 +253,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -284,8 +276,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +299,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,52 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -381,19 +381,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,61 +519,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,97 +549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,11 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,11 +622,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,41 +668,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1207,13 +1207,14 @@
     <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
     <col min="10" max="11" width="8.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="5.5" style="2" customWidth="1"/>
+    <col min="13" max="14" width="5.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.375" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.375" style="2" customWidth="1"/>
     <col min="18" max="18" width="5.875" style="2" customWidth="1"/>
@@ -1512,7 +1513,7 @@
         <v>24</v>
       </c>
       <c r="O6" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P6" s="2">
         <v>4</v>
@@ -1760,7 +1761,7 @@
         <v>40</v>
       </c>
       <c r="O10" s="2">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="P10" s="2">
         <v>7</v>
@@ -1822,7 +1823,7 @@
         <v>44</v>
       </c>
       <c r="O11" s="2">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="P11" s="2">
         <v>8</v>
@@ -1881,7 +1882,7 @@
         <v>48</v>
       </c>
       <c r="O12" s="2">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P12" s="2">
         <v>8</v>
@@ -1896,6 +1897,9 @@
         <v>2400</v>
       </c>
     </row>
+    <row r="15" spans="13:13">
+      <c r="M15" s="3"/>
+    </row>
     <row r="16" spans="13:13">
       <c r="M16" s="3"/>
     </row>
@@ -1979,21 +1983,6 @@
     </row>
     <row r="43" spans="13:13">
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="13:13">
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="13:13">
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="13:13">
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="13:13">
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="13:13">
-      <c r="M48" s="3"/>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" s="3"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -127,7 +127,7 @@
     <t>PracticeLevelMax</t>
   </si>
   <si>
-    <t>1001|100;1002|100</t>
+    <t>1001|60;1002|60</t>
   </si>
   <si>
     <t>15|5</t>
@@ -139,7 +139,7 @@
     <t>解锁藏经阁;解锁巡逻房;增加2间屋舍</t>
   </si>
   <si>
-    <t>1001|800;1002|800</t>
+    <t>1001|200;1002|200</t>
   </si>
   <si>
     <t>50|8</t>
@@ -148,37 +148,37 @@
     <t>解锁锻造屋;解锁门派挑战;增加1间屋舍</t>
   </si>
   <si>
+    <t>1003|400;1004|400</t>
+  </si>
+  <si>
+    <t>100|15</t>
+  </si>
+  <si>
+    <t>解锁百草屋;增加1间屋舍;增加1处练功场</t>
+  </si>
+  <si>
+    <t>1003|1000;1004|1000</t>
+  </si>
+  <si>
+    <t>180|20</t>
+  </si>
+  <si>
+    <t>增加1间屋舍;提升一些建筑的最高等级</t>
+  </si>
+  <si>
+    <t>解锁伏魔塔;增加1间屋舍;提升一些建筑的最高等级</t>
+  </si>
+  <si>
     <t>1003|2000;1004|2000</t>
   </si>
   <si>
-    <t>100|15</t>
-  </si>
-  <si>
-    <t>解锁百草屋;增加1间屋舍;增加1处练功场</t>
-  </si>
-  <si>
-    <t>1003|4000;1004|4000</t>
-  </si>
-  <si>
-    <t>180|20</t>
-  </si>
-  <si>
-    <t>增加1间屋舍;提升一些建筑的最高等级</t>
-  </si>
-  <si>
-    <t>解锁伏魔塔;增加1间屋舍;提升一些建筑的最高等级</t>
-  </si>
-  <si>
-    <t>1003|7000;1004|7000</t>
-  </si>
-  <si>
     <t>250|25</t>
   </si>
   <si>
     <t>解锁英雄试炼;增加1间屋舍;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|10000;1004|10000</t>
+    <t>1003|3200;1004|3200</t>
   </si>
   <si>
     <t>350|30</t>
@@ -190,7 +190,7 @@
     <t>解锁神兽;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|4800;1004|4800</t>
+    <t>1003|4400;1004|4400</t>
   </si>
   <si>
     <t>500|36</t>
@@ -222,16 +222,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,17 +239,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,22 +253,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -299,7 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,14 +290,20 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -336,8 +319,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,14 +345,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,6 +381,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,7 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,25 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,43 +501,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,61 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,17 +590,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,8 +619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +649,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -668,22 +673,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,12 +1192,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1469,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1527,11 +1527,8 @@
       <c r="S6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1589,11 +1586,8 @@
       <c r="S7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1651,11 +1645,8 @@
       <c r="S8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1713,11 +1704,8 @@
       <c r="S9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1775,11 +1763,8 @@
       <c r="S10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="2">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1834,11 +1819,8 @@
       <c r="S11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U11" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1892,9 +1874,6 @@
       </c>
       <c r="S12" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="V12" s="2">
-        <v>2400</v>
       </c>
     </row>
     <row r="15" spans="13:13">

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,8 +202,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -222,52 +222,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -276,51 +230,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -337,7 +254,81 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,15 +343,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,13 +381,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,109 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,55 +543,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,13 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,9 +622,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,26 +640,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,17 +679,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1439,10 +1439,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
         <v>25</v>
@@ -1495,10 +1495,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
         <v>60</v>
@@ -1554,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
         <v>200</v>
@@ -1613,10 +1613,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2">
         <v>600</v>
@@ -1672,10 +1672,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
         <v>1500</v>
@@ -1731,10 +1731,10 @@
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
         <v>4500</v>
@@ -1790,10 +1790,10 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <v>15000</v>
@@ -1846,10 +1846,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2">
         <v>50000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -139,7 +139,7 @@
     <t>解锁藏经阁;解锁巡逻房;增加2间屋舍</t>
   </si>
   <si>
-    <t>1001|200;1002|200</t>
+    <t>1001|300;1002|300</t>
   </si>
   <si>
     <t>50|8</t>
@@ -202,8 +202,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -222,6 +222,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -230,14 +276,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -254,74 +331,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,31 +346,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,13 +381,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,43 +513,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,31 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,85 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,17 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,35 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -660,6 +625,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,8 +671,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1208,7 +1208,7 @@
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
     <col min="10" max="11" width="8.25" style="2" customWidth="1"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -222,6 +222,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -230,39 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +252,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,7 +298,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,37 +328,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -345,8 +337,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,8 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,31 +381,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,145 +537,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,16 +614,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -646,24 +646,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,11 +666,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1433,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -1489,7 +1489,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -1548,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1607,7 +1607,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
@@ -1666,7 +1666,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1725,7 +1725,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -1784,7 +1784,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
@@ -1840,7 +1840,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1433,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -1489,7 +1489,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -1548,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1607,7 +1607,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
@@ -1666,7 +1666,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1725,7 +1725,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -1784,7 +1784,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
@@ -1840,7 +1840,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,51 +239,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,7 +255,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,7 +271,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,15 +286,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,15 +336,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,7 +353,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,12 +381,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,7 +465,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,157 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,22 +594,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +662,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -654,49 +687,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,32 +222,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,24 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,29 +253,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,8 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,7 +299,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,8 +351,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,25 +381,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,157 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,24 +586,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,21 +630,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -679,6 +646,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -687,16 +672,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1439,10 +1439,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2">
         <v>25</v>
@@ -1495,10 +1495,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2">
         <v>60</v>
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
         <v>50</v>
@@ -1613,10 +1613,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K8" s="2">
         <v>600</v>
@@ -1672,10 +1672,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K9" s="2">
         <v>1500</v>
@@ -1731,10 +1731,10 @@
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" s="2">
         <v>4500</v>
@@ -1790,10 +1790,10 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K11" s="2">
         <v>15000</v>
@@ -1846,10 +1846,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K12" s="2">
         <v>50000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -220,35 +220,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -268,62 +239,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,7 +263,88 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,8 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,187 +381,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +586,60 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,45 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -672,31 +687,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1433,10 +1433,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2">
         <v>30</v>
@@ -1489,7 +1489,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -1548,10 +1548,10 @@
         <v>42</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
         <v>30</v>
@@ -1607,7 +1607,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
@@ -1666,7 +1666,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1725,7 +1725,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -1784,7 +1784,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
@@ -1840,7 +1840,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -203,8 +203,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -224,9 +224,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,10 +260,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,9 +292,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,50 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,11 +328,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,17 +359,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,19 +381,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,43 +507,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,115 +549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +605,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -625,21 +651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,27 +687,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1442,7 +1442,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
         <v>25</v>
@@ -1498,7 +1498,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K6" s="2">
         <v>60</v>
@@ -1557,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2">
         <v>200</v>
@@ -1616,7 +1616,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K8" s="2">
         <v>600</v>
@@ -1675,7 +1675,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K9" s="2">
         <v>1500</v>
@@ -1734,7 +1734,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K10" s="2">
         <v>4500</v>
@@ -1793,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K11" s="2">
         <v>15000</v>
@@ -1849,7 +1849,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K12" s="2">
         <v>50000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,9 @@
     <t>工作时长，秒</t>
   </si>
   <si>
+    <t>自动工作等待时长，秒</t>
+  </si>
+  <si>
     <t>工作报酬</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>WorkTime</t>
+  </si>
+  <si>
+    <t>AutoWorkWait</t>
   </si>
   <si>
     <t>WorkPay</t>
@@ -222,16 +228,36 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,9 +270,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,8 +295,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,44 +334,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,37 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -381,187 +387,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +597,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -601,21 +622,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,26 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,16 +684,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,12 +1198,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1210,19 +1216,19 @@
     <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.375" style="2" customWidth="1"/>
-    <col min="13" max="14" width="5.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="8.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.375" style="2" customWidth="1"/>
+    <col min="14" max="15" width="5.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="5.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="49.625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,152 +1283,164 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>36</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1442,51 +1460,54 @@
         <v>30</v>
       </c>
       <c r="J5" s="2">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2">
         <v>50</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>25</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>100</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>20</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>25</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>3</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>5</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2">
         <v>400</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>15</v>
@@ -1498,54 +1519,57 @@
         <v>30</v>
       </c>
       <c r="J6" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K6" s="2">
         <v>60</v>
       </c>
       <c r="L6" s="2">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2">
         <v>250</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>24</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>70</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>4</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>12</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>4</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>1600</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
         <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2">
         <v>15</v>
@@ -1557,54 +1581,57 @@
         <v>30</v>
       </c>
       <c r="J7" s="2">
+        <v>90</v>
+      </c>
+      <c r="K7" s="2">
         <v>80</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>200</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>800</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>3</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>28</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>130</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>4</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>17</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>5</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>3600</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
         <v>210</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2">
         <v>15</v>
@@ -1616,54 +1643,57 @@
         <v>30</v>
       </c>
       <c r="J8" s="2">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2">
         <v>100</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>600</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>2400</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>4</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>32</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>230</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>5</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>22</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2">
         <v>6</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
         <v>5600</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>15</v>
@@ -1675,54 +1705,57 @@
         <v>30</v>
       </c>
       <c r="J9" s="2">
+        <v>90</v>
+      </c>
+      <c r="K9" s="2">
         <v>120</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1500</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>6000</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>4</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>36</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>320</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>6</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>30</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <v>7</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>8000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2">
         <v>450</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
         <v>15</v>
@@ -1734,54 +1767,57 @@
         <v>30</v>
       </c>
       <c r="J10" s="2">
+        <v>90</v>
+      </c>
+      <c r="K10" s="2">
         <v>150</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>4500</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>18000</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>5</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>40</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>440</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>7</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>36</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2">
         <v>8</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2">
         <v>12000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2">
         <v>600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2">
         <v>15</v>
@@ -1793,51 +1829,54 @@
         <v>30</v>
       </c>
       <c r="J11" s="2">
+        <v>90</v>
+      </c>
+      <c r="K11" s="2">
         <v>180</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>15000</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>60000</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>5</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>44</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>600</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>8</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>43</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2">
         <v>16800</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2">
         <v>15</v>
@@ -1849,287 +1888,290 @@
         <v>30</v>
       </c>
       <c r="J12" s="2">
+        <v>90</v>
+      </c>
+      <c r="K12" s="2">
         <v>250</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>50000</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>200000</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>5</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>48</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>800</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>8</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>48</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="13:13">
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="13:13">
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="13:13">
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="13:13">
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="13:13">
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="13:13">
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="13:13">
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="13:13">
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="13:13">
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="13:13">
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="13:13">
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="13:13">
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="13:13">
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="13:13">
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="13:13">
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="13:13">
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="13:13">
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="13:13">
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="13:13">
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="13:13">
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="13:13">
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="13:13">
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="13:13">
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="13:13">
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="13:13">
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="13:13">
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="13:13">
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="13:13">
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="13:13">
-      <c r="M43" s="3"/>
-    </row>
-    <row r="49" spans="13:13">
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="13:13">
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="13:13">
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="13:13">
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="13:13">
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="13:13">
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="13:13">
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="13:13">
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="13:13">
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="13:13">
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="13:13">
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="13:13">
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="13:13">
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="13:13">
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="13:13">
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="13:13">
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="13:13">
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="13:13">
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="13:13">
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="13:13">
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="13:13">
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="13:13">
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="13:13">
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="13:13">
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="13:13">
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="13:13">
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="13:13">
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="13:13">
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="13:13">
-      <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="13:13">
-      <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="13:13">
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="13:13">
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="13:13">
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="13:13">
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="13:13">
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="13:13">
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="13:13">
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="13:13">
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="13:13">
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="13:13">
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="13:13">
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="13:13">
-      <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="13:13">
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="13:13">
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="13:13">
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="13:13">
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="13:13">
-      <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="13:13">
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="13:13">
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="13:13">
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="13:13">
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="13:13">
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="13:13">
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="13:13">
-      <c r="M102" s="3"/>
-    </row>
-    <row r="103" spans="13:13">
-      <c r="M103" s="3"/>
-    </row>
-    <row r="104" spans="13:13">
-      <c r="M104" s="3"/>
+      <c r="T12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="14:14">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="14:14">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="14:14">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="14:14">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="14:14">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="14:14">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="14:14">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="14:14">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="14:14">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="14:14">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="14:14">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="14:14">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="14:14">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="14:14">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="14:14">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="14:14">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="14:14">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="14:14">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="14:14">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="14:14">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="14:14">
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="14:14">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="14:14">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="14:14">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="14:14">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="14:14">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="14:14">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="14:14">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="14:14">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="14:14">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="14:14">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="14:14">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="14:14">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="14:14">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="14:14">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="14:14">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="14:14">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="14:14">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="14:14">
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="14:14">
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="14:14">
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="14:14">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="14:14">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="14:14">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="14:14">
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="14:14">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="14:14">
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="14:14">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="14:14">
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="14:14">
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="14:14">
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="14:14">
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="14:14">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="14:14">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="14:14">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="14:14">
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="14:14">
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="14:14">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="14:14">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="14:14">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="14:14">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="14:14">
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="14:14">
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="14:14">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="14:14">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="14:14">
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="14:14">
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="14:14">
+      <c r="N104" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -229,42 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,25 +245,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,33 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,20 +325,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,187 +387,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +612,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -628,19 +652,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -661,21 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -684,25 +693,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -228,13 +228,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -243,16 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +251,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -281,7 +266,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,38 +326,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,37 +358,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,49 +387,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,25 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,97 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +612,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -635,37 +650,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,9 +676,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -207,8 +207,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -228,21 +228,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -251,7 +236,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -272,16 +257,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,25 +287,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +305,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -344,7 +321,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,14 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,13 +387,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,25 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,97 +543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,37 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +597,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -611,17 +635,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,24 +655,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,6 +676,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -684,25 +693,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1451,13 +1451,13 @@
         <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2">
         <v>90</v>
@@ -1510,13 +1510,13 @@
         <v>40</v>
       </c>
       <c r="G6" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2">
         <v>90</v>
@@ -1572,13 +1572,13 @@
         <v>44</v>
       </c>
       <c r="G7" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J7" s="2">
         <v>90</v>
@@ -1634,13 +1634,13 @@
         <v>47</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2">
         <v>90</v>
@@ -1696,13 +1696,13 @@
         <v>50</v>
       </c>
       <c r="G9" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2">
         <v>90</v>
@@ -1758,13 +1758,13 @@
         <v>50</v>
       </c>
       <c r="G10" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2">
         <v>90</v>
@@ -1820,13 +1820,13 @@
         <v>57</v>
       </c>
       <c r="G11" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2">
         <v>90</v>
@@ -1879,13 +1879,13 @@
         <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2">
         <v>90</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -236,10 +236,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,26 +257,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,7 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,22 +305,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -328,30 +312,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,12 +334,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,37 +387,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,145 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +596,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -607,54 +616,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,8 +638,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,151 +684,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1460,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K5" s="2">
         <v>50</v>
@@ -1519,7 +1519,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K6" s="2">
         <v>60</v>
@@ -1581,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K7" s="2">
         <v>80</v>
@@ -1643,7 +1643,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
@@ -1705,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K9" s="2">
         <v>120</v>
@@ -1767,7 +1767,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K10" s="2">
         <v>150</v>
@@ -1829,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K11" s="2">
         <v>180</v>
@@ -1888,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K12" s="2">
         <v>250</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -208,8 +208,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -229,17 +229,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,8 +257,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -274,7 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,15 +289,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,16 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,18 +333,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,7 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -365,10 +364,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -387,37 +387,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,13 +477,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,85 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,11 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,45 +622,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,6 +655,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -699,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1219,8 +1219,9 @@
     <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
     <col min="11" max="12" width="8.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="7.375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="5.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="2" customWidth="1"/>
     <col min="17" max="17" width="7.375" style="2" customWidth="1"/>
     <col min="18" max="18" width="10.375" style="2" customWidth="1"/>
     <col min="19" max="19" width="5.875" style="2" customWidth="1"/>
@@ -1475,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P5" s="2">
         <v>25</v>
@@ -1534,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="O6" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P6" s="2">
         <v>70</v>
@@ -1596,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P7" s="2">
         <v>130</v>
@@ -1658,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P8" s="2">
         <v>230</v>
@@ -1720,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="O9" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P9" s="2">
         <v>320</v>
@@ -1782,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="O10" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P10" s="2">
         <v>440</v>
@@ -1844,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="O11" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2">
         <v>600</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -236,6 +236,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,17 +279,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,20 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -295,54 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -357,18 +341,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -387,13 +387,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,169 +537,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,21 +592,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,11 +628,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,7 +654,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,8 +676,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -688,8 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1532,7 +1532,7 @@
         <v>250</v>
       </c>
       <c r="N6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="2">
         <v>32</v>
@@ -1594,7 +1594,7 @@
         <v>800</v>
       </c>
       <c r="N7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="2">
         <v>34</v>
@@ -1656,7 +1656,7 @@
         <v>2400</v>
       </c>
       <c r="N8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O8" s="2">
         <v>36</v>
@@ -1718,7 +1718,7 @@
         <v>6000</v>
       </c>
       <c r="N9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O9" s="2">
         <v>39</v>
@@ -1780,7 +1780,7 @@
         <v>18000</v>
       </c>
       <c r="N10" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O10" s="2">
         <v>42</v>
@@ -1842,7 +1842,7 @@
         <v>60000</v>
       </c>
       <c r="N11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O11" s="2">
         <v>45</v>
@@ -1901,7 +1901,7 @@
         <v>200000</v>
       </c>
       <c r="N12" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O12" s="2">
         <v>48</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -207,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -229,14 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,23 +250,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,23 +287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -325,11 +303,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,18 +340,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,11 +364,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -387,6 +387,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,25 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,19 +495,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,121 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +611,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -626,11 +635,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,21 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -684,25 +693,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1476,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P5" s="2">
         <v>25</v>
@@ -1535,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P6" s="2">
         <v>70</v>
@@ -1597,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P7" s="2">
         <v>130</v>
@@ -1659,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P8" s="2">
         <v>230</v>
@@ -1721,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P9" s="2">
         <v>320</v>
@@ -1783,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P10" s="2">
         <v>440</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P11" s="2">
         <v>600</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,7 +237,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +258,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -265,10 +265,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,9 +279,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +303,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -304,39 +319,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,21 +341,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,43 +387,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,13 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,121 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +597,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -613,23 +646,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -658,51 +693,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1461,7 +1461,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K5" s="2">
         <v>50</v>
@@ -1520,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K6" s="2">
         <v>60</v>
@@ -1582,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2">
         <v>80</v>
@@ -1644,7 +1644,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
@@ -1706,7 +1706,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K9" s="2">
         <v>120</v>
@@ -1768,7 +1768,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2">
         <v>150</v>
@@ -1830,7 +1830,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K11" s="2">
         <v>180</v>
@@ -1889,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K12" s="2">
         <v>250</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -207,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -228,8 +228,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +246,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +260,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -258,7 +274,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,7 +311,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,90 +365,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,43 +387,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,19 +543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,115 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +597,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -614,58 +629,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,16 +658,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1461,7 +1461,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K5" s="2">
         <v>50</v>
@@ -1520,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K6" s="2">
         <v>60</v>
@@ -1582,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2">
         <v>80</v>
@@ -1644,7 +1644,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
@@ -1706,7 +1706,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K9" s="2">
         <v>120</v>
@@ -1768,7 +1768,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2">
         <v>150</v>
@@ -1830,7 +1830,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2">
         <v>180</v>
@@ -1889,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2">
         <v>250</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -207,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -228,6 +228,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -236,9 +312,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,120 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,37 +387,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,25 +513,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,13 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,97 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,16 +597,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +628,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -635,17 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,36 +693,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5:J12"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1458,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K5" s="2">
         <v>50</v>
@@ -1517,10 +1517,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K6" s="2">
         <v>60</v>
@@ -1579,10 +1579,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K7" s="2">
         <v>80</v>
@@ -1641,10 +1641,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
@@ -1703,10 +1703,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K9" s="2">
         <v>120</v>
@@ -1765,10 +1765,10 @@
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K10" s="2">
         <v>150</v>
@@ -1827,10 +1827,10 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2">
         <v>180</v>
@@ -1886,10 +1886,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K12" s="2">
         <v>250</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -238,7 +238,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +273,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,17 +295,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,17 +349,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,59 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,37 +387,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,139 +531,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +592,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,68 +687,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,130 +711,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -160,6 +160,9 @@
     <t>100|15</t>
   </si>
   <si>
+    <t>解锁百草屋;解锁镖局;增加1间屋舍;增加1处练功场</t>
+  </si>
+  <si>
     <t>解锁百草屋;增加1间屋舍;增加1处练功场</t>
   </si>
   <si>
@@ -169,7 +172,7 @@
     <t>180|20</t>
   </si>
   <si>
-    <t>增加1间屋舍;提升一些建筑的最高等级</t>
+    <t>增加1间屋舍;解锁英雄试炼</t>
   </si>
   <si>
     <t>解锁伏魔塔;增加1间屋舍;提升一些建筑的最高等级</t>
@@ -181,6 +184,9 @@
     <t>250|25</t>
   </si>
   <si>
+    <t>增加1间屋舍</t>
+  </si>
+  <si>
     <t>解锁英雄试炼;增加1间屋舍;提升一些建筑的最高等级</t>
   </si>
   <si>
@@ -190,16 +196,19 @@
     <t>350|30</t>
   </si>
   <si>
+    <t>提升建筑的最高等级</t>
+  </si>
+  <si>
+    <t>解锁神兽;提升一些建筑的最高等级</t>
+  </si>
+  <si>
+    <t>1003|4400;1004|4400</t>
+  </si>
+  <si>
+    <t>500|36</t>
+  </si>
+  <si>
     <t>提升一些建筑的最高等级</t>
-  </si>
-  <si>
-    <t>解锁神兽;提升一些建筑的最高等级</t>
-  </si>
-  <si>
-    <t>1003|4400;1004|4400</t>
-  </si>
-  <si>
-    <t>500|36</t>
   </si>
 </sst>
 </file>
@@ -207,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -228,39 +237,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +258,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -289,7 +283,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,8 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,39 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -365,8 +342,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,21 +601,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +635,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -649,23 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,11 +673,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,43 +720,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -756,88 +765,88 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1212,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1213,7 +1222,7 @@
     <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
     <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
@@ -1674,7 +1683,7 @@
         <v>6</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1682,19 +1691,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2">
         <v>5600</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2">
         <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
@@ -1736,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1744,19 +1753,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>8000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2">
         <v>450</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
@@ -1798,7 +1807,7 @@
         <v>8</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1806,19 +1815,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2">
         <v>12000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2">
         <v>600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -1857,7 +1866,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1865,19 +1874,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2">
         <v>16800</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
@@ -1916,7 +1925,7 @@
         <v>48</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="14:14">

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -139,7 +139,7 @@
     <t>15|5</t>
   </si>
   <si>
-    <t>解锁藏经阁;增加1间屋舍</t>
+    <t>解锁藏经阁;增加1间屋舍;解锁门派挑战</t>
   </si>
   <si>
     <t>解锁藏经阁;解锁巡逻房;增加2间屋舍</t>
@@ -151,6 +151,9 @@
     <t>50|8</t>
   </si>
   <si>
+    <t>解锁锻造屋;增加1间屋舍;解锁爬塔</t>
+  </si>
+  <si>
     <t>解锁锻造屋;解锁门派挑战;增加1间屋舍</t>
   </si>
   <si>
@@ -184,7 +187,7 @@
     <t>250|25</t>
   </si>
   <si>
-    <t>增加1间屋舍</t>
+    <t>增加1间屋舍;解锁竞技场</t>
   </si>
   <si>
     <t>解锁英雄试炼;增加1间屋舍;提升一些建筑的最高等级</t>
@@ -196,7 +199,7 @@
     <t>350|30</t>
   </si>
   <si>
-    <t>提升建筑的最高等级</t>
+    <t>提升建筑最高等级</t>
   </si>
   <si>
     <t>解锁神兽;提升一些建筑的最高等级</t>
@@ -217,9 +220,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -238,13 +241,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -260,7 +256,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,9 +280,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,6 +339,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -297,24 +362,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,53 +383,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,187 +399,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,74 +604,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,16 +637,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,133 +723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1621,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1629,19 +1632,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>3600</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2">
         <v>210</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
         <v>10</v>
@@ -1683,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1691,19 +1694,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
         <v>5600</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2">
         <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
@@ -1745,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1753,19 +1756,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2">
         <v>8000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2">
         <v>450</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
@@ -1807,7 +1810,7 @@
         <v>8</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1815,19 +1818,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2">
         <v>12000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2">
         <v>600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -1866,7 +1869,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1874,19 +1877,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2">
         <v>16800</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
@@ -1925,7 +1928,7 @@
         <v>48</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="14:14">

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -136,7 +136,7 @@
     <t>1001|60;1002|60</t>
   </si>
   <si>
-    <t>15|5</t>
+    <t>5|3</t>
   </si>
   <si>
     <t>解锁藏经阁;增加1间屋舍;解锁门派挑战</t>
@@ -148,7 +148,7 @@
     <t>1001|300;1002|300</t>
   </si>
   <si>
-    <t>50|8</t>
+    <t>30|3</t>
   </si>
   <si>
     <t>解锁锻造屋;增加1间屋舍;解锁爬塔</t>
@@ -160,7 +160,7 @@
     <t>1003|400;1004|400</t>
   </si>
   <si>
-    <t>100|15</t>
+    <t>60|5</t>
   </si>
   <si>
     <t>解锁百草屋;解锁镖局;增加1间屋舍;增加1处练功场</t>
@@ -172,7 +172,7 @@
     <t>1003|1000;1004|1000</t>
   </si>
   <si>
-    <t>180|20</t>
+    <t>120|5</t>
   </si>
   <si>
     <t>增加1间屋舍;解锁英雄试炼</t>
@@ -184,7 +184,7 @@
     <t>1003|2000;1004|2000</t>
   </si>
   <si>
-    <t>250|25</t>
+    <t>180|8</t>
   </si>
   <si>
     <t>增加1间屋舍;解锁竞技场</t>
@@ -196,7 +196,7 @@
     <t>1003|3200;1004|3200</t>
   </si>
   <si>
-    <t>350|30</t>
+    <t>250|8</t>
   </si>
   <si>
     <t>提升建筑最高等级</t>
@@ -208,7 +208,7 @@
     <t>1003|4400;1004|4400</t>
   </si>
   <si>
-    <t>500|36</t>
+    <t>360|10</t>
   </si>
   <si>
     <t>提升一些建筑的最高等级</t>
@@ -219,9 +219,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -241,30 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,39 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,38 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -371,9 +287,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,6 +375,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -399,43 +399,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,37 +543,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,90 +580,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,6 +604,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,8 +691,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,57 +701,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,145 +711,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,12 +1210,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1223,7 +1223,7 @@
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
@@ -1931,6 +1931,9 @@
         <v>64</v>
       </c>
     </row>
+    <row r="14" spans="14:14">
+      <c r="N14" s="3"/>
+    </row>
     <row r="15" spans="14:14">
       <c r="N15" s="3"/>
     </row>
@@ -1997,27 +2000,27 @@
     <row r="36" spans="14:14">
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="14:14">
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="14:14">
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="14:14">
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="14:14">
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="14:14">
-      <c r="N41" s="3"/>
-    </row>
     <row r="42" spans="14:14">
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" s="3"/>
     </row>
+    <row r="44" spans="14:14">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="14:14">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="14:14">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="14:14">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="14:14">
+      <c r="N48" s="3"/>
+    </row>
     <row r="49" spans="14:14">
       <c r="N49" s="3"/>
     </row>
@@ -2164,27 +2167,6 @@
     </row>
     <row r="97" spans="14:14">
       <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="14:14">
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="14:14">
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="14:14">
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="14:14">
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="14:14">
-      <c r="N102" s="3"/>
-    </row>
-    <row r="103" spans="14:14">
-      <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="14:14">
-      <c r="N104" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLobby.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <t>解锁藏经阁;解锁巡逻房;增加2间屋舍</t>
   </si>
   <si>
-    <t>1001|300;1002|300</t>
+    <t>1001|240;1002|240</t>
   </si>
   <si>
     <t>30|3</t>
@@ -157,21 +157,21 @@
     <t>解锁锻造屋;解锁门派挑战;增加1间屋舍</t>
   </si>
   <si>
+    <t>1001|420;1002|420</t>
+  </si>
+  <si>
+    <t>60|5</t>
+  </si>
+  <si>
+    <t>解锁百草屋;解锁镖局;增加1间屋舍;增加1处练功场</t>
+  </si>
+  <si>
+    <t>解锁百草屋;增加1间屋舍;增加1处练功场</t>
+  </si>
+  <si>
     <t>1003|400;1004|400</t>
   </si>
   <si>
-    <t>60|5</t>
-  </si>
-  <si>
-    <t>解锁百草屋;解锁镖局;增加1间屋舍;增加1处练功场</t>
-  </si>
-  <si>
-    <t>解锁百草屋;增加1间屋舍;增加1处练功场</t>
-  </si>
-  <si>
-    <t>1003|1000;1004|1000</t>
-  </si>
-  <si>
     <t>120|5</t>
   </si>
   <si>
@@ -181,7 +181,7 @@
     <t>解锁伏魔塔;增加1间屋舍;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|2000;1004|2000</t>
+    <t>1003|700;1004|700</t>
   </si>
   <si>
     <t>180|8</t>
@@ -193,7 +193,7 @@
     <t>解锁英雄试炼;增加1间屋舍;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|3200;1004|3200</t>
+    <t>1003|1600;1004|1600</t>
   </si>
   <si>
     <t>250|8</t>
@@ -205,7 +205,7 @@
     <t>解锁神兽;提升一些建筑的最高等级</t>
   </si>
   <si>
-    <t>1003|4400;1004|4400</t>
+    <t>1003|3000;1004|3000</t>
   </si>
   <si>
     <t>360|10</t>
@@ -219,8 +219,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -247,70 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,17 +277,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,16 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +346,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -399,6 +399,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,175 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,21 +608,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -658,32 +679,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,25 +705,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,7 +1215,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
